--- a/EBC League.xlsx
+++ b/EBC League.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="21">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,22 +46,25 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>3 - 3 - 0</t>
-  </si>
-  <si>
-    <t>2 - 4 - 0</t>
-  </si>
-  <si>
-    <t>4 - 2 - 0</t>
-  </si>
-  <si>
-    <t>1 - 5 - 0</t>
-  </si>
-  <si>
-    <t>6 - 0 - 0</t>
-  </si>
-  <si>
-    <t>5 - 1 - 0</t>
+    <t>4 - 3 - 0</t>
+  </si>
+  <si>
+    <t>3 - 4 - 0</t>
+  </si>
+  <si>
+    <t>5 - 2 - 0</t>
+  </si>
+  <si>
+    <t>2 - 5 - 0</t>
+  </si>
+  <si>
+    <t>1 - 6 - 0</t>
+  </si>
+  <si>
+    <t>7 - 0 - 0</t>
+  </si>
+  <si>
+    <t>6 - 1 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -486,7 +489,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -506,25 +509,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -535,25 +538,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -599,13 +602,13 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -619,28 +622,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -651,22 +654,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -680,22 +683,22 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -719,10 +722,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -733,10 +736,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -747,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>3.375</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -758,13 +761,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -772,13 +775,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -786,13 +789,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>3.625</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -803,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>3.375</v>
+        <v>3.625</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -817,10 +820,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -831,10 +834,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3.625</v>
+        <v>4.25</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -855,13 +858,13 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -872,13 +875,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>5.625</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>-1.375</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -895,7 +898,7 @@
         <v>-0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -903,16 +906,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.125</v>
+        <v>3.75</v>
       </c>
       <c r="D4">
-        <v>-0.875</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -923,10 +926,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>3.125</v>
+        <v>3.625</v>
       </c>
       <c r="D5">
-        <v>1.125</v>
+        <v>0.625</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -937,13 +940,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>2.875</v>
+        <v>3.375</v>
       </c>
       <c r="D6">
-        <v>-0.125</v>
+        <v>-0.625</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -957,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="D7">
         <v>0.25</v>
@@ -974,13 +977,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="D8">
-        <v>0.75</v>
+        <v>1.375</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -991,13 +994,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="D9">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1018,10 +1021,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1035,7 +1038,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1046,10 +1049,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1057,13 +1060,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1071,13 +1074,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1085,13 +1088,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1099,13 +1102,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1116,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1130,10 +1133,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>-18</v>
+        <v>-22</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League.xlsx
+++ b/EBC League.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="29">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">Champagne  Papi </t>
   </si>
   <si>
+    <t>Teams</t>
+  </si>
+  <si>
     <t>5 - 3 - 0</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
     <t>1 - 7 - 0</t>
   </si>
   <si>
-    <t>Teams</t>
-  </si>
-  <si>
     <t>Avg Wins Against Schedule</t>
   </si>
   <si>
@@ -85,25 +85,16 @@
     <t>Expected Record</t>
   </si>
   <si>
-    <t>52 - -38 - 0</t>
-  </si>
-  <si>
-    <t>42 - -28 - 0</t>
-  </si>
-  <si>
-    <t>40 - -26 - 0</t>
-  </si>
-  <si>
-    <t>39 - -25 - 0</t>
-  </si>
-  <si>
-    <t>33 - -19 - 0</t>
-  </si>
-  <si>
-    <t>30 - -16 - 0</t>
-  </si>
-  <si>
-    <t>19 - -5 - 0</t>
+    <t>12 - 2 - 0</t>
+  </si>
+  <si>
+    <t>9 - 5 - 0</t>
+  </si>
+  <si>
+    <t>7 - 7 - 0</t>
+  </si>
+  <si>
+    <t>4 - 10 - 0</t>
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
@@ -113,24 +104,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>+2</t>
-  </si>
-  <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-2</t>
   </si>
 </sst>
 </file>
@@ -488,244 +461,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>9</v>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -735,109 +735,133 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>3.125</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>3.75</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3.875</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>3.875</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>3.875</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>4.125</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>4.25</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>5.125</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
+      <c r="D9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -846,6 +870,196 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>5.75</v>
+      </c>
+      <c r="D2">
+        <v>-0.25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4.625</v>
+      </c>
+      <c r="D3">
+        <v>-0.375</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4.5</v>
+      </c>
+      <c r="D4">
+        <v>-0.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>4.375</v>
+      </c>
+      <c r="D5">
+        <v>0.375</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3.625</v>
+      </c>
+      <c r="D6">
+        <v>-1.375</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>3.625</v>
+      </c>
+      <c r="D7">
+        <v>0.625</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3.375</v>
+      </c>
+      <c r="D8">
+        <v>0.375</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2.125</v>
+      </c>
+      <c r="D9">
+        <v>0.125</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -854,295 +1068,153 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>5.75</v>
-      </c>
       <c r="C2">
-        <v>-0.25</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>4.625</v>
-      </c>
       <c r="C3">
-        <v>-0.375</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>4.5</v>
-      </c>
-      <c r="C4">
-        <v>-0.5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>4.375</v>
-      </c>
-      <c r="C5">
-        <v>0.375</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>3.625</v>
-      </c>
-      <c r="C6">
-        <v>-1.375</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3.625</v>
-      </c>
-      <c r="C7">
-        <v>0.625</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>3.375</v>
-      </c>
-      <c r="C8">
-        <v>0.375</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>2.125</v>
-      </c>
       <c r="C9">
-        <v>0.125</v>
+        <v>-24</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>-2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>-2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>-24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League.xlsx
+++ b/EBC League.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="29">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,28 +46,31 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>5 - 3 - 0</t>
-  </si>
-  <si>
-    <t>4 - 4 - 0</t>
-  </si>
-  <si>
-    <t>3 - 5 - 0</t>
-  </si>
-  <si>
-    <t>2 - 6 - 0</t>
-  </si>
-  <si>
-    <t>8 - 0 - 0</t>
-  </si>
-  <si>
-    <t>6 - 2 - 0</t>
-  </si>
-  <si>
-    <t>7 - 1 - 0</t>
-  </si>
-  <si>
-    <t>1 - 7 - 0</t>
+    <t>5 - 4 - 0</t>
+  </si>
+  <si>
+    <t>4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>3 - 6 - 0</t>
+  </si>
+  <si>
+    <t>2 - 7 - 0</t>
+  </si>
+  <si>
+    <t>9 - 0 - 0</t>
+  </si>
+  <si>
+    <t>6 - 3 - 0</t>
+  </si>
+  <si>
+    <t>8 - 1 - 0</t>
+  </si>
+  <si>
+    <t>1 - 8 - 0</t>
+  </si>
+  <si>
+    <t>7 - 2 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -82,21 +85,6 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Expected Record</t>
-  </si>
-  <si>
-    <t>12 - 2 - 0</t>
-  </si>
-  <si>
-    <t>9 - 5 - 0</t>
-  </si>
-  <si>
-    <t>7 - 7 - 0</t>
-  </si>
-  <si>
-    <t>4 - 10 - 0</t>
-  </si>
-  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
@@ -104,6 +92,18 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>-4</t>
   </si>
 </sst>
 </file>
@@ -507,13 +507,13 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -571,16 +571,16 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -594,19 +594,19 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
         <v>9</v>
@@ -620,25 +620,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -658,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -675,28 +675,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -704,28 +704,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -746,10 +746,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>3.125</v>
-      </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -771,13 +771,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.875</v>
+        <v>4.125</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -799,13 +799,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3.875</v>
+        <v>4.5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -816,10 +816,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3.875</v>
+        <v>4.5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -827,13 +827,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>4.125</v>
+        <v>4.625</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -841,10 +841,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>4.25</v>
+        <v>4.625</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>5.125</v>
+        <v>5.625</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -871,30 +871,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -902,119 +899,101 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="D2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>4.625</v>
+        <v>5.375</v>
       </c>
       <c r="D3">
-        <v>-0.375</v>
+        <v>0.375</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>4.875</v>
       </c>
       <c r="D4">
-        <v>-0.5</v>
+        <v>-0.125</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4.375</v>
+        <v>4.625</v>
       </c>
       <c r="D5">
-        <v>0.375</v>
+        <v>-0.375</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>3.625</v>
+        <v>4.5</v>
       </c>
       <c r="D6">
-        <v>-1.375</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>3.625</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0.625</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1022,19 +1001,16 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>3.375</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1049,9 +1025,6 @@
       </c>
       <c r="E9" t="s">
         <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1072,13 +1045,13 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1095,7 +1068,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1103,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -1112,7 +1085,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1120,16 +1093,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1137,16 +1110,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1154,16 +1127,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1171,16 +1144,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1191,13 +1164,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1208,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>-24</v>
+        <v>-28</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>

--- a/EBC League.xlsx
+++ b/EBC League.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="33">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,31 +46,34 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>5 - 4 - 0</t>
-  </si>
-  <si>
-    <t>4 - 5 - 0</t>
-  </si>
-  <si>
-    <t>3 - 6 - 0</t>
-  </si>
-  <si>
-    <t>2 - 7 - 0</t>
-  </si>
-  <si>
-    <t>9 - 0 - 0</t>
-  </si>
-  <si>
-    <t>6 - 3 - 0</t>
-  </si>
-  <si>
-    <t>8 - 1 - 0</t>
-  </si>
-  <si>
-    <t>1 - 8 - 0</t>
-  </si>
-  <si>
-    <t>7 - 2 - 0</t>
+    <t>5 - 5 - 0</t>
+  </si>
+  <si>
+    <t>4 - 6 - 0</t>
+  </si>
+  <si>
+    <t>3 - 7 - 0</t>
+  </si>
+  <si>
+    <t>6 - 4 - 0</t>
+  </si>
+  <si>
+    <t>2 - 8 - 0</t>
+  </si>
+  <si>
+    <t>10 - 0 - 0</t>
+  </si>
+  <si>
+    <t>9 - 1 - 0</t>
+  </si>
+  <si>
+    <t>1 - 9 - 0</t>
+  </si>
+  <si>
+    <t>7 - 3 - 0</t>
+  </si>
+  <si>
+    <t>8 - 2 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -94,16 +97,25 @@
     <t>0</t>
   </si>
   <si>
+    <t>+6</t>
+  </si>
+  <si>
     <t>+4</t>
   </si>
   <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
     <t>-2</t>
-  </si>
-  <si>
-    <t>+2</t>
-  </si>
-  <si>
-    <t>-4</t>
   </si>
 </sst>
 </file>
@@ -507,19 +519,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -533,25 +545,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -562,25 +574,25 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -594,16 +606,16 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -620,19 +632,19 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -649,10 +661,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -681,19 +693,19 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -704,28 +716,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -746,10 +758,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -757,13 +769,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -771,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -785,13 +797,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>4.125</v>
+        <v>4.75</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -799,13 +811,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>4.5</v>
+        <v>4.875</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -816,10 +828,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -827,13 +839,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4.625</v>
+        <v>5.375</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -841,10 +853,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4.625</v>
+        <v>5.375</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -858,10 +870,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>5.625</v>
+        <v>5.875</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -882,13 +894,13 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -899,10 +911,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6.5</v>
+        <v>7.375</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-0.625</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -916,13 +928,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>5.375</v>
+        <v>6.375</v>
       </c>
       <c r="D3">
         <v>0.375</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -933,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.875</v>
+        <v>5.5</v>
       </c>
       <c r="D4">
-        <v>-0.125</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -947,16 +959,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>4.625</v>
+        <v>5.125</v>
       </c>
       <c r="D5">
-        <v>-0.375</v>
+        <v>1.125</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -964,13 +976,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -984,10 +996,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.375</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-0.625</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1001,13 +1013,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>4.375</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1024,7 +1036,7 @@
         <v>0.125</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1045,13 +1057,13 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1068,7 +1080,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1079,13 +1091,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1096,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1110,16 +1122,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1130,13 +1142,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1144,16 +1156,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1161,16 +1173,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1181,13 +1193,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>-28</v>
+        <v>-30</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League.xlsx
+++ b/EBC League.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="31">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,34 +46,34 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>5 - 5 - 0</t>
-  </si>
-  <si>
-    <t>4 - 6 - 0</t>
-  </si>
-  <si>
-    <t>3 - 7 - 0</t>
-  </si>
-  <si>
-    <t>6 - 4 - 0</t>
-  </si>
-  <si>
-    <t>2 - 8 - 0</t>
-  </si>
-  <si>
-    <t>10 - 0 - 0</t>
-  </si>
-  <si>
-    <t>9 - 1 - 0</t>
-  </si>
-  <si>
-    <t>1 - 9 - 0</t>
-  </si>
-  <si>
-    <t>7 - 3 - 0</t>
-  </si>
-  <si>
-    <t>8 - 2 - 0</t>
+    <t>6 - 5 - 0</t>
+  </si>
+  <si>
+    <t>4 - 7 - 0</t>
+  </si>
+  <si>
+    <t>7 - 4 - 0</t>
+  </si>
+  <si>
+    <t>5 - 6 - 0</t>
+  </si>
+  <si>
+    <t>2 - 9 - 0</t>
+  </si>
+  <si>
+    <t>11 - 0 - 0</t>
+  </si>
+  <si>
+    <t>10 - 1 - 0</t>
+  </si>
+  <si>
+    <t>1 - 10 - 0</t>
+  </si>
+  <si>
+    <t>8 - 3 - 0</t>
+  </si>
+  <si>
+    <t>9 - 2 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -94,28 +94,22 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>+6</t>
   </si>
   <si>
     <t>+4</t>
   </si>
   <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-5</t>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>+2</t>
   </si>
   <si>
     <t>-2</t>
+  </si>
+  <si>
+    <t>-6</t>
   </si>
 </sst>
 </file>
@@ -516,25 +510,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -580,10 +574,10 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -600,19 +594,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -621,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -629,25 +623,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -658,28 +652,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -693,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -705,7 +699,7 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -716,28 +710,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -769,13 +763,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -783,13 +777,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -797,13 +791,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4.75</v>
+        <v>5.125</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -811,13 +805,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>4.875</v>
+        <v>5.25</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -828,10 +822,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>5.375</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -842,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>5.375</v>
+        <v>5.625</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -856,10 +850,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5.375</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -870,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>5.875</v>
+        <v>6.625</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -911,7 +905,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7.375</v>
+        <v>8.375</v>
       </c>
       <c r="D2">
         <v>-0.625</v>
@@ -928,13 +922,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>6.375</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -942,16 +936,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -959,16 +953,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5.125</v>
+        <v>5.875</v>
       </c>
       <c r="D5">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -976,16 +970,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>4.75</v>
+        <v>4.875</v>
       </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>-0.125</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -993,16 +987,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>4.375</v>
+        <v>4.875</v>
       </c>
       <c r="D7">
-        <v>-0.625</v>
+        <v>0.875</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1010,16 +1004,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4.375</v>
+        <v>4.875</v>
       </c>
       <c r="D8">
-        <v>0.375</v>
+        <v>-0.125</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1074,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1091,10 +1085,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1108,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1125,13 +1119,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1139,16 +1133,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>-1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1156,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>-3</v>
@@ -1165,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1176,13 +1170,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1193,13 +1187,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>-30</v>
+        <v>-36</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League.xlsx
+++ b/EBC League.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="34">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,34 +46,37 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>6 - 5 - 0</t>
-  </si>
-  <si>
-    <t>4 - 7 - 0</t>
-  </si>
-  <si>
-    <t>7 - 4 - 0</t>
-  </si>
-  <si>
-    <t>5 - 6 - 0</t>
-  </si>
-  <si>
-    <t>2 - 9 - 0</t>
-  </si>
-  <si>
-    <t>11 - 0 - 0</t>
-  </si>
-  <si>
-    <t>10 - 1 - 0</t>
-  </si>
-  <si>
-    <t>1 - 10 - 0</t>
-  </si>
-  <si>
-    <t>8 - 3 - 0</t>
-  </si>
-  <si>
-    <t>9 - 2 - 0</t>
+    <t>7 - 5 - 0</t>
+  </si>
+  <si>
+    <t>4 - 8 - 0</t>
+  </si>
+  <si>
+    <t>6 - 6 - 0</t>
+  </si>
+  <si>
+    <t>5 - 7 - 0</t>
+  </si>
+  <si>
+    <t>2 - 10 - 0</t>
+  </si>
+  <si>
+    <t>11 - 1 - 0</t>
+  </si>
+  <si>
+    <t>10 - 2 - 0</t>
+  </si>
+  <si>
+    <t>1 - 11 - 0</t>
+  </si>
+  <si>
+    <t>9 - 3 - 0</t>
+  </si>
+  <si>
+    <t>8 - 4 - 0</t>
+  </si>
+  <si>
+    <t>3 - 9 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -94,22 +97,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>+6</t>
-  </si>
-  <si>
-    <t>+4</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>+2</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-6</t>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>-35</t>
+  </si>
+  <si>
+    <t>-33</t>
+  </si>
+  <si>
+    <t>-32</t>
+  </si>
+  <si>
+    <t>-13</t>
   </si>
 </sst>
 </file>
@@ -519,16 +528,16 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -554,10 +563,10 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -565,7 +574,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -574,19 +583,19 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -594,28 +603,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -626,10 +635,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -641,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -655,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -684,10 +693,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -699,10 +708,10 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -710,13 +719,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -725,10 +734,10 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
         <v>9</v>
@@ -752,10 +761,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -763,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -777,13 +786,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>5.625</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -791,10 +800,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>5.125</v>
+        <v>5.75</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -805,13 +814,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>5.25</v>
+        <v>5.875</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -819,13 +828,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5.375</v>
+        <v>5.875</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -833,13 +842,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5.625</v>
+        <v>6.25</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -850,7 +859,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>6.375</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -864,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>6.625</v>
+        <v>6.75</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -888,13 +897,13 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -905,10 +914,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>8.375</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>-0.625</v>
+        <v>-1.125</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -919,16 +928,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>1.875</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -936,16 +945,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>1.875</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -956,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.875</v>
+        <v>1.75</v>
       </c>
       <c r="D5">
-        <v>0.875</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -973,13 +982,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>4.875</v>
+        <v>1.375</v>
       </c>
       <c r="D6">
-        <v>-0.125</v>
+        <v>0.875</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -987,16 +996,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>4.875</v>
+        <v>1.25</v>
       </c>
       <c r="D7">
-        <v>0.875</v>
+        <v>-0.125</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1004,16 +1013,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>4.875</v>
+        <v>1.125</v>
       </c>
       <c r="D8">
-        <v>-0.125</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1024,10 +1033,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2.125</v>
+        <v>0.625</v>
       </c>
       <c r="D9">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1051,13 +1060,13 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1068,13 +1077,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>-27</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1082,16 +1091,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>-30</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1099,16 +1108,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>-31</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1119,13 +1128,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>-35</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1136,13 +1145,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>-36</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1153,13 +1162,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>-3</v>
+        <v>-36</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1170,13 +1179,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-9</v>
+        <v>-41</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1187,13 +1196,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>-36</v>
+        <v>-49</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League.xlsx
+++ b/EBC League.xlsx
@@ -97,28 +97,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>-36</t>
-  </si>
-  <si>
-    <t>-47</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>-35</t>
-  </si>
-  <si>
-    <t>-33</t>
-  </si>
-  <si>
-    <t>-32</t>
-  </si>
-  <si>
-    <t>-13</t>
+    <t>+51</t>
+  </si>
+  <si>
+    <t>+45</t>
+  </si>
+  <si>
+    <t>+40</t>
+  </si>
+  <si>
+    <t>+39</t>
+  </si>
+  <si>
+    <t>+36</t>
+  </si>
+  <si>
+    <t>+31</t>
+  </si>
+  <si>
+    <t>+29</t>
+  </si>
+  <si>
+    <t>+14</t>
   </si>
 </sst>
 </file>
@@ -914,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>8.875</v>
       </c>
       <c r="D2">
         <v>-1.125</v>
@@ -928,16 +928,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1.875</v>
+        <v>7.5</v>
       </c>
       <c r="D3">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -945,13 +945,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.875</v>
+        <v>6.75</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -962,16 +962,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>1.75</v>
+        <v>6.75</v>
       </c>
       <c r="D5">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -982,7 +982,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>1.375</v>
+        <v>5.875</v>
       </c>
       <c r="D6">
         <v>0.875</v>
@@ -996,16 +996,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>1.25</v>
-      </c>
       <c r="D7">
-        <v>-0.125</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1013,16 +1013,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>1.125</v>
+        <v>4.875</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>-0.125</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.625</v>
+        <v>2.375</v>
       </c>
       <c r="D9">
         <v>0.375</v>
@@ -1077,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>-27</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1091,10 +1091,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>-30</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1108,10 +1108,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>-31</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1128,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>-35</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1142,13 +1142,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -1159,13 +1159,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>-36</v>
+        <v>-5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -1179,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-41</v>
+        <v>-12</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>-49</v>
+        <v>-35</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>

--- a/EBC League.xlsx
+++ b/EBC League.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_2089C3D15E16D22BA3C2FE04CA31F7192CDE43F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C315F6A2-C20E-4887-827D-19311B5FFD15}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,25 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="32">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -97,35 +116,29 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>+51</t>
-  </si>
-  <si>
-    <t>+45</t>
-  </si>
-  <si>
-    <t>+40</t>
-  </si>
-  <si>
-    <t>+39</t>
-  </si>
-  <si>
-    <t>+36</t>
-  </si>
-  <si>
-    <t>+31</t>
-  </si>
-  <si>
-    <t>+29</t>
-  </si>
-  <si>
-    <t>+14</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +201,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -234,7 +255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +287,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +339,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,14 +532,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -511,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -569,7 +626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -598,7 +655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -627,7 +684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -656,7 +713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -685,7 +742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -714,7 +771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -749,14 +806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -767,7 +824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -781,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -795,7 +852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -809,7 +866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -823,7 +880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -837,7 +894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -851,7 +908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -865,7 +922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -885,14 +942,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,7 +963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -923,7 +980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -940,7 +997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -957,7 +1014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -974,7 +1031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -991,7 +1048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1008,7 +1065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1025,7 +1082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1048,14 +1105,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1069,7 +1128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1086,7 +1145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1103,7 +1162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1117,10 +1176,10 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1134,10 +1193,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1150,11 +1209,11 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1168,10 +1227,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1185,10 +1244,10 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1202,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League.xlsx
+++ b/EBC League.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_2089C3D15E16D22BA3C2FE04CA31F7192CDE43F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C315F6A2-C20E-4887-827D-19311B5FFD15}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -18,25 +12,12 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="33">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -65,37 +46,40 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>7 - 5 - 0</t>
-  </si>
-  <si>
-    <t>4 - 8 - 0</t>
-  </si>
-  <si>
-    <t>6 - 6 - 0</t>
-  </si>
-  <si>
-    <t>5 - 7 - 0</t>
-  </si>
-  <si>
-    <t>2 - 10 - 0</t>
-  </si>
-  <si>
-    <t>11 - 1 - 0</t>
-  </si>
-  <si>
-    <t>10 - 2 - 0</t>
-  </si>
-  <si>
-    <t>1 - 11 - 0</t>
-  </si>
-  <si>
-    <t>9 - 3 - 0</t>
-  </si>
-  <si>
-    <t>8 - 4 - 0</t>
-  </si>
-  <si>
-    <t>3 - 9 - 0</t>
+    <t>8 - 5 - 0</t>
+  </si>
+  <si>
+    <t>4 - 9 - 0</t>
+  </si>
+  <si>
+    <t>7 - 6 - 0</t>
+  </si>
+  <si>
+    <t>6 - 7 - 0</t>
+  </si>
+  <si>
+    <t>5 - 8 - 0</t>
+  </si>
+  <si>
+    <t>2 - 11 - 0</t>
+  </si>
+  <si>
+    <t>12 - 1 - 0</t>
+  </si>
+  <si>
+    <t>11 - 2 - 0</t>
+  </si>
+  <si>
+    <t>1 - 12 - 0</t>
+  </si>
+  <si>
+    <t>9 - 4 - 0</t>
+  </si>
+  <si>
+    <t>10 - 3 - 0</t>
+  </si>
+  <si>
+    <t>3 - 10 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -116,29 +100,29 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↑6</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
     <t>↑1</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,14 +185,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -255,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,27 +263,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,24 +297,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,14 +472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -568,7 +508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -597,7 +537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -605,28 +545,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -634,10 +574,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -646,16 +586,16 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -666,13 +606,13 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -684,7 +624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -692,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -704,7 +644,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -713,12 +653,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -727,10 +667,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -742,7 +682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -753,25 +693,25 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -779,25 +719,25 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
         <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -806,123 +746,123 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>5.5</v>
+        <v>5.875</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>5.625</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>5.75</v>
+        <v>6.125</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5.875</v>
+        <v>6.25</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>5.875</v>
+        <v>6.25</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>6.25</v>
+        <v>6.875</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>6.375</v>
+        <v>7.125</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -930,10 +870,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -942,28 +882,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -971,16 +911,16 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>8.875</v>
+        <v>9.875</v>
       </c>
       <c r="D2">
         <v>-1.125</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -988,16 +928,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>7.5</v>
+        <v>7.875</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1005,16 +945,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.75</v>
+        <v>7.625</v>
       </c>
       <c r="D4">
-        <v>-0.25</v>
+        <v>-0.375</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1022,16 +962,16 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>6.75</v>
+        <v>7.125</v>
       </c>
       <c r="D5">
-        <v>-1.25</v>
+        <v>-1.875</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1039,50 +979,50 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>5.875</v>
+        <v>6.5</v>
       </c>
       <c r="D6">
-        <v>0.875</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>4.875</v>
+        <v>5.125</v>
       </c>
       <c r="D8">
-        <v>-0.125</v>
+        <v>1.125</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1096,7 +1036,7 @@
         <v>0.375</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1105,30 +1045,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1136,16 +1074,16 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1153,16 +1091,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1170,50 +1108,50 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1221,16 +1159,16 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1238,7 +1176,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1247,7 +1185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1255,13 +1193,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>-35</v>
+        <v>-41</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League.xlsx
+++ b/EBC League.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="34">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,40 +46,40 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>8 - 5 - 0</t>
-  </si>
-  <si>
-    <t>4 - 9 - 0</t>
-  </si>
-  <si>
-    <t>7 - 6 - 0</t>
-  </si>
-  <si>
-    <t>6 - 7 - 0</t>
-  </si>
-  <si>
-    <t>5 - 8 - 0</t>
-  </si>
-  <si>
-    <t>2 - 11 - 0</t>
-  </si>
-  <si>
-    <t>12 - 1 - 0</t>
-  </si>
-  <si>
-    <t>11 - 2 - 0</t>
-  </si>
-  <si>
-    <t>1 - 12 - 0</t>
-  </si>
-  <si>
-    <t>9 - 4 - 0</t>
-  </si>
-  <si>
-    <t>10 - 3 - 0</t>
-  </si>
-  <si>
-    <t>3 - 10 - 0</t>
+    <t>9 - 5 - 0</t>
+  </si>
+  <si>
+    <t>5 - 9 - 0</t>
+  </si>
+  <si>
+    <t>8 - 6 - 0</t>
+  </si>
+  <si>
+    <t>7 - 7 - 0</t>
+  </si>
+  <si>
+    <t>6 - 8 - 0</t>
+  </si>
+  <si>
+    <t>2 - 12 - 0</t>
+  </si>
+  <si>
+    <t>12 - 2 - 0</t>
+  </si>
+  <si>
+    <t>1 - 13 - 0</t>
+  </si>
+  <si>
+    <t>4 - 10 - 0</t>
+  </si>
+  <si>
+    <t>10 - 4 - 0</t>
+  </si>
+  <si>
+    <t>11 - 3 - 0</t>
+  </si>
+  <si>
+    <t>3 - 11 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -100,22 +100,25 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑6</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -548,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -577,13 +580,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -592,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -603,7 +606,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -632,22 +635,22 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -658,28 +661,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -690,22 +693,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -719,7 +722,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -772,10 +775,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>5.875</v>
+        <v>6.125</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -786,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>6.375</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -800,10 +803,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.125</v>
+        <v>6.75</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -811,13 +814,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -825,13 +828,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6.25</v>
+        <v>7.125</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -842,10 +845,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6.875</v>
+        <v>7.5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -856,10 +859,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7.125</v>
+        <v>7.5</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -870,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>7.5</v>
+        <v>7.625</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -911,13 +914,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>9.875</v>
+        <v>10.625</v>
       </c>
       <c r="D2">
-        <v>-1.125</v>
+        <v>-1.375</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -928,7 +931,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>7.875</v>
+        <v>8.875</v>
       </c>
       <c r="D3">
         <v>0.875</v>
@@ -945,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.625</v>
+        <v>8.125</v>
       </c>
       <c r="D4">
-        <v>-0.375</v>
+        <v>-0.875</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -959,16 +962,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>7.125</v>
+        <v>7.375</v>
       </c>
       <c r="D5">
-        <v>-1.875</v>
+        <v>1.375</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -976,16 +979,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>6.5</v>
+        <v>7.375</v>
       </c>
       <c r="D6">
-        <v>1.5</v>
+        <v>-1.625</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -993,16 +996,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>5.625</v>
       </c>
       <c r="D7">
-        <v>-0.5</v>
+        <v>1.625</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1010,16 +1013,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5.125</v>
+        <v>5.5</v>
       </c>
       <c r="D8">
-        <v>1.125</v>
+        <v>-0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1030,10 +1033,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="D9">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1074,10 +1077,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1091,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1105,13 +1108,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -1122,13 +1125,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -1142,10 +1145,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -1159,10 +1162,10 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -1176,13 +1179,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1199,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
